--- a/microservices/shared_data/orderInfo.xlsx
+++ b/microservices/shared_data/orderInfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,36 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/orderInfo.xlsx
+++ b/microservices/shared_data/orderInfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,36 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
